--- a/NOVEDADES/SEC/doc_1738682444_777255.xlsx
+++ b/NOVEDADES/SEC/doc_1738682444_777255.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\NOVEDADES\SEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C3A7A-D5D8-4C88-A0F5-122E7F85A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB78C55-89ED-453C-A88B-6BB7AE38416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="12255" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>SINDICATO DE EMPLEADOS DE COMERCIO LA PLATA</t>
   </si>
@@ -103,6 +103,9 @@
   <si>
     <t xml:space="preserve">                                    incrementada al sueldo básico más todos los rubros remunerativos</t>
   </si>
+  <si>
+    <t>½ JORN.</t>
+  </si>
 </sst>
 </file>
 
@@ -110,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -168,16 +171,35 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBDA0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -342,11 +364,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,7 +474,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +495,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -828,17 +914,17 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="45">
         <v>45717</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47">
         <v>818152.58</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="48">
         <v>140508.4</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>958660.98</v>
       </c>
@@ -908,7 +994,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>45689</v>
       </c>
@@ -928,17 +1014,17 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="50">
         <v>45717</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25">
+      <c r="B16" s="51"/>
+      <c r="C16" s="52">
         <v>822247.18</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="53">
         <v>141211.69</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="54">
         <f t="shared" si="1"/>
         <v>963458.87000000011</v>
       </c>
@@ -947,11 +1033,22 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57">
+        <f>+C16/2</f>
+        <v>411123.59</v>
+      </c>
+      <c r="D17" s="57">
+        <f>+D16/2</f>
+        <v>70605.845000000001</v>
+      </c>
+      <c r="E17" s="57">
+        <f>+E16/2</f>
+        <v>481729.43500000006</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -1268,17 +1365,17 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="45">
         <v>45717</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25">
+      <c r="B38" s="46"/>
+      <c r="C38" s="47">
         <v>852626.04</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="48">
         <v>146428.82999999999</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="49">
         <f t="shared" si="4"/>
         <v>999054.87</v>
       </c>
@@ -1509,9 +1606,18 @@
     <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="40"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="29"/>
+      <c r="C53" s="44">
+        <f>+C51/2</f>
+        <v>422662.79</v>
+      </c>
+      <c r="D53" s="44">
+        <f t="shared" ref="D53:E53" si="7">+D51/2</f>
+        <v>72587.539999999994</v>
+      </c>
+      <c r="E53" s="44">
+        <f t="shared" si="7"/>
+        <v>495250.32999999996</v>
+      </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
